--- a/Asset_database.xlsx
+++ b/Asset_database.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rupam/Projects/Monopoly app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03514495-0CAF-B245-9EFB-8F6C14DD8050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E233712F-F369-4646-A9C3-5CCA39B01458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B7DE670B-367B-5A40-A7DF-21378A41D08B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B7DE670B-367B-5A40-A7DF-21378A41D08B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Residential" sheetId="1" r:id="rId1"/>
+    <sheet name="Utilities" sheetId="2" r:id="rId2"/>
+    <sheet name="Transport" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>Asset</t>
   </si>
@@ -50,36 +52,6 @@
     <t>House price</t>
   </si>
   <si>
-    <t>Street 1</t>
-  </si>
-  <si>
-    <t>Asset 1.1</t>
-  </si>
-  <si>
-    <t>Asset 1.2</t>
-  </si>
-  <si>
-    <t>Asset 1.3</t>
-  </si>
-  <si>
-    <t>Asset 1.4</t>
-  </si>
-  <si>
-    <t>Street 2</t>
-  </si>
-  <si>
-    <t>Asset 2.1</t>
-  </si>
-  <si>
-    <t>Asset 2.2</t>
-  </si>
-  <si>
-    <t>Asset 2.3</t>
-  </si>
-  <si>
-    <t>Asset 2.4</t>
-  </si>
-  <si>
     <t>Rent: 1</t>
   </si>
   <si>
@@ -93,13 +65,145 @@
   </si>
   <si>
     <t>Rent: 4</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Hollywood Ave.</t>
+  </si>
+  <si>
+    <t>Wilshire Blvd.</t>
+  </si>
+  <si>
+    <t>Sunset Blvd.</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Beacon Street</t>
+  </si>
+  <si>
+    <t>Brattle Street</t>
+  </si>
+  <si>
+    <t>Harvard Square</t>
+  </si>
+  <si>
+    <t>New Orleans</t>
+  </si>
+  <si>
+    <t>Basin Street</t>
+  </si>
+  <si>
+    <t>French Quarter</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Constitution Ave.</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Pennsylvania Ave.</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Nob Hill</t>
+  </si>
+  <si>
+    <t>Union Square</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>State Street</t>
+  </si>
+  <si>
+    <t>Michigan Avenue</t>
+  </si>
+  <si>
+    <t>Rush Street</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>Walnut Street</t>
+  </si>
+  <si>
+    <t>Chestnut Street</t>
+  </si>
+  <si>
+    <t>Locust Street</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Fifth Avenue</t>
+  </si>
+  <si>
+    <t>Wall Street</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>U.S. Air Line</t>
+  </si>
+  <si>
+    <t>U.S. Truck Company</t>
+  </si>
+  <si>
+    <t>U.S. Bus Company</t>
+  </si>
+  <si>
+    <t>U.S. Railroad</t>
+  </si>
+  <si>
+    <t>U.S. Electric Company</t>
+  </si>
+  <si>
+    <t>U.S. Gas Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisherman's Wharf </t>
+  </si>
+  <si>
+    <t>Ticket: 4</t>
+  </si>
+  <si>
+    <t>Ticket: 3</t>
+  </si>
+  <si>
+    <t>Ticket: 2</t>
+  </si>
+  <si>
+    <t>Ticket: 1</t>
+  </si>
+  <si>
+    <t>Multiplier: 1</t>
+  </si>
+  <si>
+    <t>Multiplier: 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +216,19 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,16 +279,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,323 +631,896 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CEFF30-90BD-FA47-B1A4-40407B7B6B12}">
-  <dimension ref="C2:K10"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
+        <v>100</v>
+      </c>
+      <c r="F3" s="5">
+        <v>50</v>
+      </c>
+      <c r="G3" s="5">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5">
+        <v>30</v>
+      </c>
+      <c r="I3" s="5">
+        <v>40</v>
+      </c>
+      <c r="J3" s="5">
+        <v>50</v>
+      </c>
+      <c r="K3" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>120</v>
+      </c>
+      <c r="F4" s="5">
+        <v>50</v>
+      </c>
+      <c r="G4" s="5">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5">
+        <v>34</v>
+      </c>
+      <c r="I4" s="5">
+        <v>44</v>
+      </c>
+      <c r="J4" s="5">
+        <v>54</v>
+      </c>
+      <c r="K4" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="5">
+        <v>50</v>
+      </c>
+      <c r="G5" s="5">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5">
+        <v>40</v>
+      </c>
+      <c r="J5" s="5">
+        <v>50</v>
+      </c>
+      <c r="K5" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5">
+        <v>240</v>
+      </c>
+      <c r="F6" s="5">
+        <v>150</v>
+      </c>
+      <c r="G6" s="5">
+        <v>24</v>
+      </c>
+      <c r="H6" s="5">
+        <v>78</v>
+      </c>
+      <c r="I6" s="5">
+        <v>108</v>
+      </c>
+      <c r="J6" s="5">
+        <v>138</v>
+      </c>
+      <c r="K6" s="5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>220</v>
+      </c>
+      <c r="F7" s="5">
+        <v>150</v>
+      </c>
+      <c r="G7" s="5">
+        <v>22</v>
+      </c>
+      <c r="H7" s="5">
+        <v>74</v>
+      </c>
+      <c r="I7" s="5">
+        <v>104</v>
+      </c>
+      <c r="J7" s="5">
+        <v>134</v>
+      </c>
+      <c r="K7" s="5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="E8" s="5">
+        <v>220</v>
+      </c>
+      <c r="F8" s="5">
+        <v>150</v>
+      </c>
+      <c r="G8" s="5">
+        <v>22</v>
+      </c>
+      <c r="H8" s="5">
+        <v>74</v>
+      </c>
+      <c r="I8" s="5">
+        <v>104</v>
+      </c>
+      <c r="J8" s="5">
+        <v>134</v>
+      </c>
+      <c r="K8" s="5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5">
+        <v>60</v>
+      </c>
+      <c r="F9" s="5">
+        <v>50</v>
+      </c>
+      <c r="G9" s="5">
+        <v>6</v>
+      </c>
+      <c r="H9" s="5">
+        <v>22</v>
+      </c>
+      <c r="I9" s="5">
+        <v>32</v>
+      </c>
+      <c r="J9" s="5">
+        <v>42</v>
+      </c>
+      <c r="K9" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5">
+        <v>50</v>
+      </c>
+      <c r="G10" s="5">
+        <v>6</v>
+      </c>
+      <c r="H10" s="5">
+        <v>22</v>
+      </c>
+      <c r="I10" s="5">
+        <v>32</v>
+      </c>
+      <c r="J10" s="5">
+        <v>42</v>
+      </c>
+      <c r="K10" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="8">
+        <v>260</v>
+      </c>
+      <c r="F11" s="8">
+        <v>150</v>
+      </c>
+      <c r="G11" s="8">
+        <v>26</v>
+      </c>
+      <c r="H11" s="8">
+        <v>82</v>
+      </c>
+      <c r="I11" s="8">
+        <v>112</v>
+      </c>
+      <c r="J11" s="8">
+        <v>142</v>
+      </c>
+      <c r="K11" s="8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="8">
+        <v>260</v>
+      </c>
+      <c r="F12" s="8">
+        <v>150</v>
+      </c>
+      <c r="G12" s="8">
+        <v>26</v>
+      </c>
+      <c r="H12" s="8">
+        <v>82</v>
+      </c>
+      <c r="I12" s="8">
+        <v>112</v>
+      </c>
+      <c r="J12" s="8">
+        <v>142</v>
+      </c>
+      <c r="K12" s="8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="8">
+        <v>280</v>
+      </c>
+      <c r="F13" s="8">
+        <v>150</v>
+      </c>
+      <c r="G13" s="8">
+        <v>28</v>
+      </c>
+      <c r="H13" s="8">
+        <v>86</v>
+      </c>
+      <c r="I13" s="8">
+        <v>116</v>
+      </c>
+      <c r="J13" s="8">
+        <v>146</v>
+      </c>
+      <c r="K13" s="8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5">
+        <v>300</v>
+      </c>
+      <c r="F14" s="5">
+        <v>200</v>
+      </c>
+      <c r="G14" s="5">
+        <v>30</v>
+      </c>
+      <c r="H14" s="5">
+        <v>100</v>
+      </c>
+      <c r="I14" s="5">
+        <v>140</v>
+      </c>
+      <c r="J14" s="5">
+        <v>180</v>
+      </c>
+      <c r="K14" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5">
+        <v>320</v>
+      </c>
+      <c r="F15" s="5">
+        <v>200</v>
+      </c>
+      <c r="G15" s="5">
+        <v>32</v>
+      </c>
+      <c r="H15" s="5">
+        <v>104</v>
+      </c>
+      <c r="I15" s="5">
+        <v>144</v>
+      </c>
+      <c r="J15" s="5">
+        <v>184</v>
+      </c>
+      <c r="K15" s="5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="5">
+        <v>300</v>
+      </c>
+      <c r="F16" s="5">
+        <v>200</v>
+      </c>
+      <c r="G16" s="5">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5">
+        <v>100</v>
+      </c>
+      <c r="I16" s="5">
+        <v>140</v>
+      </c>
+      <c r="J16" s="5">
+        <v>180</v>
+      </c>
+      <c r="K16" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="5">
+        <v>140</v>
+      </c>
+      <c r="F17" s="5">
+        <v>100</v>
+      </c>
+      <c r="G17" s="5">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="H17" s="5">
+        <v>48</v>
+      </c>
+      <c r="I17" s="5">
+        <v>68</v>
+      </c>
+      <c r="J17" s="5">
+        <v>88</v>
+      </c>
+      <c r="K17" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="5">
+        <v>160</v>
+      </c>
+      <c r="F18" s="5">
+        <v>100</v>
+      </c>
+      <c r="G18" s="5">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5">
+        <v>52</v>
+      </c>
+      <c r="I18" s="5">
+        <v>72</v>
+      </c>
+      <c r="J18" s="5">
+        <v>92</v>
+      </c>
+      <c r="K18" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="C19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="5">
+        <v>140</v>
+      </c>
+      <c r="F19" s="5">
+        <v>100</v>
+      </c>
+      <c r="G19" s="5">
+        <v>14</v>
+      </c>
+      <c r="H19" s="5">
+        <v>48</v>
+      </c>
+      <c r="I19" s="5">
+        <v>68</v>
+      </c>
+      <c r="J19" s="5">
+        <v>88</v>
+      </c>
+      <c r="K19" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5">
+        <v>200</v>
+      </c>
+      <c r="F20" s="5">
+        <v>100</v>
+      </c>
+      <c r="G20" s="5">
+        <v>20</v>
+      </c>
+      <c r="H20" s="5">
+        <v>60</v>
+      </c>
+      <c r="I20" s="5">
+        <v>80</v>
+      </c>
+      <c r="J20" s="5">
+        <v>100</v>
+      </c>
+      <c r="K20" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="5">
+        <v>180</v>
+      </c>
+      <c r="F21" s="5">
+        <v>100</v>
+      </c>
+      <c r="G21" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="H21" s="5">
+        <v>56</v>
+      </c>
+      <c r="I21" s="5">
+        <v>76</v>
+      </c>
+      <c r="J21" s="5">
+        <v>96</v>
+      </c>
+      <c r="K21" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="5">
+        <v>180</v>
+      </c>
+      <c r="F22" s="5">
         <v>100</v>
       </c>
-      <c r="F3" s="1">
-        <v>50</v>
-      </c>
-      <c r="G3" s="1">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="G22" s="5">
+        <v>18</v>
+      </c>
+      <c r="H22" s="5">
+        <v>56</v>
+      </c>
+      <c r="I22" s="5">
+        <v>76</v>
+      </c>
+      <c r="J22" s="5">
+        <v>96</v>
+      </c>
+      <c r="K22" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="5">
+        <v>350</v>
+      </c>
+      <c r="F23" s="5">
+        <v>200</v>
+      </c>
+      <c r="G23" s="5">
+        <v>35</v>
+      </c>
+      <c r="H23" s="5">
+        <v>110</v>
+      </c>
+      <c r="I23" s="5">
+        <v>150</v>
+      </c>
+      <c r="J23" s="5">
+        <v>190</v>
+      </c>
+      <c r="K23" s="5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="C24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="5">
+        <v>400</v>
+      </c>
+      <c r="F24" s="5">
+        <v>200</v>
+      </c>
+      <c r="G24" s="5">
         <v>40</v>
       </c>
-      <c r="K3" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1">
-        <f>E3+5</f>
-        <v>105</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" ref="F4:K4" si="0">F3+5</f>
-        <v>55</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1">
-        <v>100</v>
-      </c>
-      <c r="F5" s="1">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1">
-        <v>40</v>
-      </c>
-      <c r="K5" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <f>E5+5</f>
-        <v>105</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" ref="F6" si="1">F5+5</f>
-        <v>55</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" ref="G6" si="2">G5+5</f>
-        <v>15</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" ref="H6" si="3">H5+5</f>
-        <v>25</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" ref="I6" si="4">I5+5</f>
-        <v>35</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" ref="J6" si="5">J5+5</f>
-        <v>45</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" ref="K6" si="6">K5+5</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" ref="E7:E10" si="7">E6+5</f>
-        <v>110</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" ref="F7:F10" si="8">F6+5</f>
-        <v>60</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" ref="G7:G10" si="9">G6+5</f>
-        <v>20</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" ref="H7:H10" si="10">H6+5</f>
-        <v>30</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" ref="I7:I10" si="11">I6+5</f>
-        <v>40</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" ref="J7:J10" si="12">J6+5</f>
-        <v>50</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" ref="K7:K10" si="13">K6+5</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="7"/>
-        <v>115</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="8"/>
-        <v>65</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="9"/>
-        <v>25</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="10"/>
-        <v>35</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="11"/>
-        <v>45</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="12"/>
-        <v>55</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="13"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="7"/>
+      <c r="H24" s="5">
         <v>120</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="9"/>
-        <v>30</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="12"/>
-        <v>60</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="13"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="7"/>
-        <v>125</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="9"/>
-        <v>35</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="10"/>
-        <v>45</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="11"/>
-        <v>55</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="12"/>
-        <v>65</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="13"/>
-        <v>75</v>
+      <c r="I24" s="5">
+        <v>160</v>
+      </c>
+      <c r="J24" s="5">
+        <v>200</v>
+      </c>
+      <c r="K24" s="5">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A267C1B-35AB-9343-8E65-AB60838FFB8E}">
+  <dimension ref="B4:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="5">
+        <v>150</v>
+      </c>
+      <c r="D5" s="5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5">
+        <v>150</v>
+      </c>
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3AF8FD-8D23-FF48-BD3B-4D2BAB92C9A3}">
+  <dimension ref="B3:G7"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5">
+        <v>200</v>
+      </c>
+      <c r="D4" s="5">
+        <v>40</v>
+      </c>
+      <c r="E4" s="5">
+        <v>80</v>
+      </c>
+      <c r="F4" s="5">
+        <v>160</v>
+      </c>
+      <c r="G4" s="5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5">
+        <v>200</v>
+      </c>
+      <c r="D5" s="5">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5">
+        <v>80</v>
+      </c>
+      <c r="F5" s="5">
+        <v>160</v>
+      </c>
+      <c r="G5" s="5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="5">
+        <v>200</v>
+      </c>
+      <c r="D6" s="5">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5">
+        <v>80</v>
+      </c>
+      <c r="F6" s="5">
+        <v>160</v>
+      </c>
+      <c r="G6" s="5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="5">
+        <v>200</v>
+      </c>
+      <c r="D7" s="5">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5">
+        <v>80</v>
+      </c>
+      <c r="F7" s="5">
+        <v>160</v>
+      </c>
+      <c r="G7" s="5">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>